--- a/models/dissertation-model/modelo-R/calibracao/dados_calibracao.xlsx
+++ b/models/dissertation-model/modelo-R/calibracao/dados_calibracao.xlsx
@@ -433,14 +433,12 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3061224489796"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -453,7 +451,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>0</v>
+        <v>2007</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2600</v>
@@ -462,7 +460,7 @@
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <f aca="false">A2+1</f>
-        <v>1</v>
+        <v>2008</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>3500</v>
@@ -471,7 +469,7 @@
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <f aca="false">A3+1</f>
-        <v>2</v>
+        <v>2009</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>4000</v>
@@ -480,7 +478,7 @@
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <f aca="false">A4+1</f>
-        <v>3</v>
+        <v>2010</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>5000</v>
@@ -489,7 +487,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <f aca="false">A5+1</f>
-        <v>4</v>
+        <v>2011</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>5050</v>
@@ -498,7 +496,7 @@
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <f aca="false">A6+1</f>
-        <v>5</v>
+        <v>2012</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>4600</v>
@@ -507,7 +505,7 @@
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <f aca="false">A7+1</f>
-        <v>6</v>
+        <v>2013</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>6100</v>
@@ -516,7 +514,7 @@
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <f aca="false">A8+1</f>
-        <v>7</v>
+        <v>2014</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>6500</v>
@@ -525,7 +523,7 @@
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <f aca="false">A9+1</f>
-        <v>8</v>
+        <v>2015</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>7771</v>
@@ -534,7 +532,7 @@
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <f aca="false">A10+1</f>
-        <v>9</v>
+        <v>2016</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>10310.5</v>
@@ -543,7 +541,7 @@
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <f aca="false">A11+1</f>
-        <v>10</v>
+        <v>2017</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>12850</v>
@@ -573,12 +571,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.9387755102041"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.530612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.7295918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -694,13 +692,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="10" min="2" style="1" width="39.5510204081633"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="43.0612244897959"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="42.6581632653061"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="38.6071428571429"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="40.6326530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="10" min="2" style="1" width="39.1479591836735"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="42.5204081632653"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="42.25"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="38.0663265306122"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="40.0918367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1664,8 +1662,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.5867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.1836734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1827,9 +1825,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1931,7 +1929,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/models/dissertation-model/modelo-R/calibracao/dados_calibracao.xlsx
+++ b/models/dissertation-model/modelo-R/calibracao/dados_calibracao.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="69">
   <si>
     <t xml:space="preserve">time</t>
   </si>
@@ -141,6 +141,9 @@
     <t xml:space="preserve">Margem Média - Fornecedores de Materiais de Impressão</t>
   </si>
   <si>
+    <t xml:space="preserve">Média</t>
+  </si>
+  <si>
     <t xml:space="preserve">Market Share 3D System Manufacturers</t>
   </si>
   <si>
@@ -198,9 +201,15 @@
     <t xml:space="preserve">Patentes Publicadas</t>
   </si>
   <si>
+    <t xml:space="preserve">Share</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fujitsu</t>
   </si>
   <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
     <t xml:space="preserve">NEC Corp</t>
   </si>
   <si>
@@ -214,6 +223,9 @@
   </si>
   <si>
     <t xml:space="preserve">Univ Texas System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total</t>
   </si>
   <si>
     <t xml:space="preserve">2015: Systems Manufacturers 55% do Mercado Total, Service Providers 25%</t>
@@ -315,7 +327,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -349,6 +361,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -432,13 +448,15 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -571,12 +589,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.7295918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.1275510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.3214285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -680,25 +698,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="L28" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
-      <selection pane="bottomRight" activeCell="D22" activeCellId="0" sqref="D22"/>
+      <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+      <selection pane="bottomRight" activeCell="O36" activeCellId="0" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="10" min="2" style="1" width="39.1479591836735"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="42.5204081632653"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="42.25"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="38.0663265306122"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="40.0918367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="10" min="2" style="1" width="38.6071428571429"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="42.1173469387755"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="41.7142857142857"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="39.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1399,7 +1417,7 @@
         <v>0.172</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>2010</v>
       </c>
@@ -1430,8 +1448,11 @@
       <c r="K28" s="6" t="n">
         <v>0.196</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O28" s="0" t="n">
+        <v>10725000</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>2011</v>
       </c>
@@ -1471,8 +1492,11 @@
       <c r="N29" s="7" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O29" s="0" t="n">
+        <v>14331000</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>2012</v>
       </c>
@@ -1512,8 +1536,11 @@
       <c r="N30" s="7" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O30" s="0" t="n">
+        <v>23203000</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>2013</v>
       </c>
@@ -1545,8 +1572,11 @@
       <c r="N31" s="7" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O31" s="0" t="n">
+        <v>43489000</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>2014</v>
       </c>
@@ -1575,8 +1605,11 @@
       <c r="N32" s="7" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O32" s="0" t="n">
+        <v>75395000</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>2015</v>
       </c>
@@ -1599,8 +1632,11 @@
       <c r="N33" s="7" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O33" s="0" t="n">
+        <v>92770000</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>2016</v>
       </c>
@@ -1614,6 +1650,9 @@
       <c r="J34" s="5" t="n">
         <v>0.55</v>
       </c>
+      <c r="O34" s="0" t="n">
+        <v>88395000</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
@@ -1625,6 +1664,63 @@
       </c>
       <c r="J35" s="5" t="n">
         <v>0.55</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <f aca="false">AVERAGE(B6:B35)</f>
+        <v>241.294117647059</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <f aca="false">AVERAGE(C6:C35)</f>
+        <v>35009.375</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <f aca="false">AVERAGE(D6:D35)</f>
+        <v>2934.42592592593</v>
+      </c>
+      <c r="E36" s="1" t="e">
+        <f aca="false">AVERAGE(E6:E35)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F36" s="1" t="e">
+        <f aca="false">AVERAGE(F6:F35)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <f aca="false">AVERAGE(G6:G35)</f>
+        <v>185.615384615385</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <f aca="false">AVERAGE(H6:H35)</f>
+        <v>354.307692307692</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <f aca="false">AVERAGE(I6:I35)</f>
+        <v>2.27770859277709</v>
+      </c>
+      <c r="J36" s="9" t="n">
+        <f aca="false">AVERAGE(J6:J35)</f>
+        <v>0.55</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <f aca="false">AVERAGE(K6:K35)</f>
+        <v>0.1432</v>
+      </c>
+      <c r="L36" s="9" t="n">
+        <f aca="false">AVERAGE(L6:L35)</f>
+        <v>0.108</v>
+      </c>
+      <c r="M36" s="9" t="n">
+        <f aca="false">AVERAGE(M6:M35)</f>
+        <v>0.2</v>
+      </c>
+      <c r="N36" s="9" t="n">
+        <f aca="false">AVERAGE(N6:N35)</f>
+        <v>0.148</v>
       </c>
     </row>
   </sheetData>
@@ -1657,13 +1753,13 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.1836734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.780612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1673,12 +1769,12 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" s="7" t="n">
         <v>0.29</v>
@@ -1686,7 +1782,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" s="7" t="n">
         <v>0.28</v>
@@ -1694,7 +1790,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" s="7" t="n">
         <v>0.12</v>
@@ -1702,7 +1798,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" s="7" t="n">
         <v>0.03</v>
@@ -1710,7 +1806,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" s="7" t="n">
         <v>0.03</v>
@@ -1718,7 +1814,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" s="7" t="n">
         <v>0.02</v>
@@ -1726,7 +1822,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" s="7" t="n">
         <v>0.03</v>
@@ -1734,7 +1830,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" s="7" t="n">
         <v>0.03</v>
@@ -1742,7 +1838,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" s="7" t="n">
         <v>0.17</v>
@@ -1750,12 +1846,12 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B15" s="7" t="n">
         <v>0.55</v>
@@ -1763,7 +1859,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16" s="7" t="n">
         <v>0.13</v>
@@ -1771,7 +1867,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B17" s="7" t="n">
         <v>0.05</v>
@@ -1779,7 +1875,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18" s="7" t="n">
         <v>0.02</v>
@@ -1787,7 +1883,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" s="7" t="n">
         <v>0.01</v>
@@ -1795,7 +1891,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20" s="7" t="n">
         <v>0.24</v>
@@ -1817,25 +1913,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>58</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>25</v>
@@ -1843,66 +1942,128 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>92</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="0" t="n">
+        <f aca="false">B2/$B$10</f>
+        <v>0.182178217821782</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>92</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="0" t="n">
+        <f aca="false">B3/$B$10</f>
+        <v>0.182178217821782</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <f aca="false">SUM(B2:B3)</f>
+        <v>184</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>91</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="0" t="n">
+        <f aca="false">B4/$B$10</f>
+        <v>0.18019801980198</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>67</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="0" t="n">
+        <f aca="false">B5/$B$10</f>
+        <v>0.132673267326733</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <f aca="false">D3/E3</f>
+        <v>306.666666666667</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="0" t="n">
+        <f aca="false">B6/$B$10</f>
+        <v>0.095049504950495</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="0" t="n">
+        <f aca="false">B7/$B$10</f>
+        <v>0.0811881188118812</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="0" t="n">
+        <f aca="false">B8/$B$10</f>
+        <v>0.0752475247524752</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>36</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <f aca="false">B9/$B$10</f>
+        <v>0.0712871287128713</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <f aca="false">SUM(B2:B9)</f>
+        <v>505</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <f aca="false">B10/$B$10</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1929,17 +2090,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/models/dissertation-model/modelo-R/calibracao/dados_calibracao.xlsx
+++ b/models/dissertation-model/modelo-R/calibracao/dados_calibracao.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,7 +30,7 @@
     <t xml:space="preserve">time</t>
   </si>
   <si>
-    <t xml:space="preserve">fIndustryOrderRate</t>
+    <t xml:space="preserve">aIndustryShipments</t>
   </si>
   <si>
     <t xml:space="preserve">ReferencePopulation</t>
@@ -448,15 +448,15 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -589,12 +589,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.1275510204082"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.3214285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.7244897959184"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.9183673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -710,13 +710,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="10" min="2" style="1" width="38.6071428571429"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="42.1173469387755"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="41.7142857142857"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="37.5255102040816"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="39.6887755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="10" min="2" style="1" width="38.0663265306122"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="41.5765306122449"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="41.1734693877551"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="37.1224489795918"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="39.280612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1556,6 +1556,8 @@
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
+      <c r="G31" s="0"/>
+      <c r="H31" s="0"/>
       <c r="I31" s="1" t="n">
         <f aca="false">9145/4015</f>
         <v>2.27770859277709</v>
@@ -1589,6 +1591,10 @@
       <c r="D32" s="1" t="n">
         <v>12850</v>
       </c>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0"/>
+      <c r="H32" s="0"/>
       <c r="I32" s="1" t="n">
         <f aca="false">9145/4015</f>
         <v>2.27770859277709</v>
@@ -1616,6 +1622,12 @@
       <c r="B33" s="1" t="n">
         <v>850</v>
       </c>
+      <c r="C33" s="0"/>
+      <c r="D33" s="0"/>
+      <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0"/>
+      <c r="H33" s="0"/>
       <c r="I33" s="1" t="n">
         <f aca="false">9145/4015</f>
         <v>2.27770859277709</v>
@@ -1643,6 +1655,12 @@
       <c r="B34" s="1" t="n">
         <v>957</v>
       </c>
+      <c r="C34" s="0"/>
+      <c r="D34" s="0"/>
+      <c r="E34" s="0"/>
+      <c r="F34" s="0"/>
+      <c r="G34" s="0"/>
+      <c r="H34" s="0"/>
       <c r="I34" s="1" t="n">
         <f aca="false">9145/4015</f>
         <v>2.27770859277709</v>
@@ -1658,6 +1676,13 @@
       <c r="A35" s="0" t="n">
         <v>2017</v>
       </c>
+      <c r="B35" s="0"/>
+      <c r="C35" s="0"/>
+      <c r="D35" s="0"/>
+      <c r="E35" s="0"/>
+      <c r="F35" s="0"/>
+      <c r="G35" s="0"/>
+      <c r="H35" s="0"/>
       <c r="I35" s="1" t="n">
         <f aca="false">9145/4015</f>
         <v>2.27770859277709</v>
@@ -1758,8 +1783,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.780612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.3724489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1915,15 +1940,15 @@
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2090,7 +2115,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/models/dissertation-model/modelo-R/calibracao/dados_calibracao.xlsx
+++ b/models/dissertation-model/modelo-R/calibracao/dados_calibracao.xlsx
@@ -19,7 +19,7 @@
     <sheet name="PatentesPorPlayer" sheetId="5" r:id="rId5"/>
     <sheet name="Planilha4" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -933,10 +933,10 @@
   <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
-      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1738,7 +1738,7 @@
         <v>35508</v>
       </c>
       <c r="D30" s="1">
-        <v>7771</v>
+        <v>7800</v>
       </c>
       <c r="E30"/>
       <c r="F30"/>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="D31" s="8">
         <f>AVERAGE(D32,D30)</f>
-        <v>10310.5</v>
+        <v>10325</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="D36" s="1">
         <f t="shared" si="2"/>
-        <v>2934.4259259259261</v>
+        <v>2936.037037037037</v>
       </c>
       <c r="E36" s="1" t="e">
         <f t="shared" si="2"/>

--- a/models/dissertation-model/modelo-R/calibracao/dados_calibracao.xlsx
+++ b/models/dissertation-model/modelo-R/calibracao/dados_calibracao.xlsx
@@ -124,9 +124,6 @@
     <t>http://wohlersassociates.com/blog/2016/01/popularity-of-fdm/</t>
   </si>
   <si>
-    <t>Período dede 88: http://docplayer.net/9034750-Executive-summary-wohlers-report-rapid-prototyping-tooling-state-of-the-industry-annual-worldwide-progress-report.html</t>
-  </si>
-  <si>
     <t>http://www.ey.com/Publication/vwLUAssets/ey-global-3d-printing-report-2016-full-report/$FILE/ey-global-3d-printing-report-2016-full-report.pdf</t>
   </si>
   <si>
@@ -236,6 +233,10 @@
   </si>
   <si>
     <t>3DP Services - aroximadamente 20 a 30% da receita dos Manufacturers</t>
+  </si>
+  <si>
+    <t>Período dede 88: http://docplayer.net/9034750-Executive-summary-wohlers-report-rapid-prototyping-tooling-state-of-the-industry-annual-worldwide-progress-report.html
+Venda em 2014: obtida em https://wohlersassociates.com/blog/2016/01/popularity-of-fdm/</t>
   </si>
 </sst>
 </file>
@@ -933,10 +934,10 @@
   <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
-      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,7 +1045,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>29</v>
       </c>
@@ -1052,7 +1053,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1064,18 +1065,18 @@
         <v>24</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -1086,16 +1087,16 @@
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1924,7 +1925,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" s="1">
         <f t="shared" ref="B36:N36" si="2">AVERAGE(B6:B35)</f>
@@ -2012,17 +2013,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="7">
         <v>0.28999999999999998</v>
@@ -2030,7 +2031,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="7">
         <v>0.28000000000000003</v>
@@ -2038,7 +2039,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="7">
         <v>0.12</v>
@@ -2046,7 +2047,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="7">
         <v>0.03</v>
@@ -2054,7 +2055,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="7">
         <v>0.03</v>
@@ -2062,7 +2063,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="7">
         <v>0.02</v>
@@ -2070,7 +2071,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="7">
         <v>0.03</v>
@@ -2078,7 +2079,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="7">
         <v>0.03</v>
@@ -2086,7 +2087,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" s="7">
         <v>0.17</v>
@@ -2094,12 +2095,12 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="7">
         <v>0.55000000000000004</v>
@@ -2107,7 +2108,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="7">
         <v>0.13</v>
@@ -2115,7 +2116,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="7">
         <v>0.05</v>
@@ -2123,7 +2124,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="7">
         <v>0.02</v>
@@ -2131,7 +2132,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="7">
         <v>0.01</v>
@@ -2139,7 +2140,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" s="7">
         <v>0.24</v>
@@ -2168,13 +2169,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
         <v>56</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>57</v>
-      </c>
-      <c r="C1" t="s">
-        <v>58</v>
       </c>
       <c r="D1" t="s">
         <v>25</v>
@@ -2182,7 +2183,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2">
         <v>92</v>
@@ -2194,7 +2195,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>92</v>
@@ -2213,7 +2214,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>91</v>
@@ -2223,7 +2224,7 @@
         <v>0.18019801980198019</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2231,7 +2232,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5">
         <v>67</v>
@@ -2247,7 +2248,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6">
         <v>48</v>
@@ -2259,7 +2260,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7">
         <v>41</v>
@@ -2271,7 +2272,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8">
         <v>38</v>
@@ -2283,7 +2284,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>36</v>
@@ -2295,7 +2296,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <f>SUM(B2:B9)</f>
@@ -2327,12 +2328,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/models/dissertation-model/modelo-R/calibracao/dados_calibracao.xlsx
+++ b/models/dissertation-model/modelo-R/calibracao/dados_calibracao.xlsx
@@ -14,10 +14,11 @@
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Ithink" sheetId="2" r:id="rId2"/>
-    <sheet name="DadosPrimarios" sheetId="3" r:id="rId3"/>
-    <sheet name="Market-Shares" sheetId="4" r:id="rId4"/>
-    <sheet name="PatentesPorPlayer" sheetId="5" r:id="rId5"/>
-    <sheet name="Planilha4" sheetId="6" r:id="rId6"/>
+    <sheet name="Gráfico1" sheetId="7" r:id="rId3"/>
+    <sheet name="DadosPrimarios" sheetId="3" r:id="rId4"/>
+    <sheet name="Market-Shares" sheetId="4" r:id="rId5"/>
+    <sheet name="PatentesPorPlayer" sheetId="5" r:id="rId6"/>
+    <sheet name="Planilha4" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027" iterateDelta="1E-4"/>
   <extLst>
@@ -396,6 +397,970 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Número de Patentes Publicadas - Impressão 3D</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.1429584501887932E-2"/>
+          <c:y val="8.2422322361576872E-2"/>
+          <c:w val="0.94805833871525458"/>
+          <c:h val="0.82464775146343394"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>DadosPrimarios!$A$18:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DadosPrimarios!$H$18:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>695</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A81D-497C-A50A-906B4ADFDBBF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="354607536"/>
+        <c:axId val="354605896"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="354607536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="354605896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="354605896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="354607536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="235">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{484ACEA4-0340-4B4C-97A0-39AA2B341E03}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9665074" cy="6023162"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EB7F39E-8745-464A-8CAE-F609405CBFAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -932,11 +1897,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="E30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/models/dissertation-model/modelo-R/calibracao/dados_calibracao.xlsx
+++ b/models/dissertation-model/modelo-R/calibracao/dados_calibracao.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Ithink" sheetId="2" r:id="rId2"/>
     <sheet name="Gráfico1" sheetId="7" r:id="rId3"/>
-    <sheet name="DadosPrimarios" sheetId="3" r:id="rId4"/>
-    <sheet name="Market-Shares" sheetId="4" r:id="rId5"/>
-    <sheet name="PatentesPorPlayer" sheetId="5" r:id="rId6"/>
-    <sheet name="Planilha4" sheetId="6" r:id="rId7"/>
+    <sheet name="Gráfico2" sheetId="8" r:id="rId4"/>
+    <sheet name="DadosPrimarios" sheetId="3" r:id="rId5"/>
+    <sheet name="Market-Shares" sheetId="4" r:id="rId6"/>
+    <sheet name="PatentesPorPlayer" sheetId="5" r:id="rId7"/>
+    <sheet name="Planilha4" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027" iterateDelta="1E-4"/>
   <extLst>
@@ -138,15 +139,6 @@
     <t>Participação da Produção de Partes em 3D sobre a receita total da indústria.</t>
   </si>
   <si>
-    <t>Margem Média - Fabricantes de Sistemas</t>
-  </si>
-  <si>
-    <t>Margem Média - Fornecedores de Serviço de Impressão</t>
-  </si>
-  <si>
-    <t>Margem Média - Fornecedores de Materiais de Impressão</t>
-  </si>
-  <si>
     <t>Média</t>
   </si>
   <si>
@@ -238,6 +230,15 @@
   </si>
   <si>
     <t>3DP Services - aroximadamente 20 a 30% da receita dos Manufacturers</t>
+  </si>
+  <si>
+    <t>Fabricantes de Sistemas de Imp. 3D</t>
+  </si>
+  <si>
+    <t>Fornecedores de Serviço de Impressão</t>
+  </si>
+  <si>
+    <t>Fornecedores de Materiais de Impressão</t>
   </si>
 </sst>
 </file>
@@ -782,6 +783,572 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DadosPrimarios!$L$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fabricantes de Sistemas de Imp. 3D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>DadosPrimarios!$A$29:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DadosPrimarios!$L$29:$L$33</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F650-406D-91B8-4E5403D5688B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DadosPrimarios!$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fornecedores de Serviço de Impressão</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>DadosPrimarios!$A$29:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DadosPrimarios!$M$29:$M$33</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F650-406D-91B8-4E5403D5688B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DadosPrimarios!$N$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fornecedores de Materiais de Impressão</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>DadosPrimarios!$A$29:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DadosPrimarios!$N$29:$N$33</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F650-406D-91B8-4E5403D5688B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="350639856"/>
+        <c:axId val="350640184"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="350639856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="350640184"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="350640184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Margem Média dos Players (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="350639856"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
@@ -819,6 +1386,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="235">
   <cs:axisTitle>
@@ -1319,8 +1926,488 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{484ACEA4-0340-4B4C-97A0-39AA2B341E03}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="68" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{51A070F4-F0BE-4FB4-9E0F-9155347690C5}">
   <sheetPr/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" workbookViewId="0" zoomToFit="1"/>
@@ -1334,13 +2421,46 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9651066" cy="6023162"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EB7F39E-8745-464A-8CAE-F609405CBFAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
     <xdr:ext cx="9665074" cy="6023162"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EB7F39E-8745-464A-8CAE-F609405CBFAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27BD6399-FD37-4339-85C4-8C4761F718C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1897,11 +3017,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="E30" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="I24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
-      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomRight" activeCell="L29" activeCellId="1" sqref="L5:N5 L29:N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2052,13 +3172,13 @@
         <v>34</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -2887,7 +4007,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1">
         <f t="shared" ref="B36:N36" si="2">AVERAGE(B6:B35)</f>
@@ -2979,12 +4099,12 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3" s="7">
         <v>0.28999999999999998</v>
@@ -2992,7 +4112,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" s="7">
         <v>0.28000000000000003</v>
@@ -3000,7 +4120,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B5" s="7">
         <v>0.12</v>
@@ -3008,7 +4128,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6" s="7">
         <v>0.03</v>
@@ -3016,7 +4136,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B7" s="7">
         <v>0.03</v>
@@ -3024,7 +4144,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B8" s="7">
         <v>0.02</v>
@@ -3032,7 +4152,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B9" s="7">
         <v>0.03</v>
@@ -3040,7 +4160,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B10" s="7">
         <v>0.03</v>
@@ -3048,7 +4168,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B11" s="7">
         <v>0.17</v>
@@ -3056,12 +4176,12 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B15" s="7">
         <v>0.55000000000000004</v>
@@ -3069,7 +4189,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B16" s="7">
         <v>0.13</v>
@@ -3077,7 +4197,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B17" s="7">
         <v>0.05</v>
@@ -3085,7 +4205,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B18" s="7">
         <v>0.02</v>
@@ -3093,7 +4213,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B19" s="7">
         <v>0.01</v>
@@ -3101,7 +4221,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B20" s="7">
         <v>0.24</v>
@@ -3129,13 +4249,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
         <v>25</v>
@@ -3143,7 +4263,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B2">
         <v>92</v>
@@ -3155,7 +4275,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>92</v>
@@ -3174,7 +4294,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>91</v>
@@ -3184,7 +4304,7 @@
         <v>0.18019801980198019</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -3192,7 +4312,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B5">
         <v>67</v>
@@ -3208,7 +4328,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B6">
         <v>48</v>
@@ -3220,7 +4340,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B7">
         <v>41</v>
@@ -3232,7 +4352,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B8">
         <v>38</v>
@@ -3244,7 +4364,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>36</v>
@@ -3256,7 +4376,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <f>SUM(B2:B9)</f>
@@ -3285,12 +4405,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
